--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\PycharmProjects\PythonProject5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15196CBB-C1E6-4BAE-B496-F6749B538319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72C0D1-E5B0-40CA-9217-0CB3D7514514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12345" yWindow="3405" windowWidth="14145" windowHeight="12195" xr2:uid="{3A22D598-7DB1-4109-8483-96F00CCDDC8D}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F32" sqref="F1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\PycharmProjects\PythonProject5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72C0D1-E5B0-40CA-9217-0CB3D7514514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972BFD5A-B8A3-477A-9077-8C1852DD41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12345" yWindow="3405" windowWidth="14145" windowHeight="12195" xr2:uid="{3A22D598-7DB1-4109-8483-96F00CCDDC8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A22D598-7DB1-4109-8483-96F00CCDDC8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5005E8B9-3DCF-4C11-A591-50F7002D70E6}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="F32" sqref="F1:F32"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
@@ -686,7 +688,9 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,7 +706,9 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,7 +724,9 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -734,7 +742,9 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -750,7 +760,9 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -766,7 +778,9 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -782,7 +796,9 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -798,7 +814,9 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -814,7 +832,9 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -830,7 +850,9 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -846,7 +868,9 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -862,7 +886,9 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -878,7 +904,9 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -894,7 +922,9 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -910,7 +940,9 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -926,7 +958,9 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
@@ -942,7 +976,9 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
@@ -958,7 +994,9 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -974,7 +1012,9 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
@@ -990,7 +1030,9 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1006,7 +1048,9 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1022,7 +1066,9 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1038,7 +1084,9 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1054,7 +1102,9 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
@@ -1070,7 +1120,9 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1086,7 +1138,9 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1102,7 +1156,9 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1118,7 +1174,9 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
@@ -1134,7 +1192,9 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
